--- a/用例数据/沪A/ETF业务/基金收益/使用cil/测试结果.xlsx
+++ b/用例数据/沪A/ETF业务/基金收益/使用cil/测试结果.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="10290" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="10296" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="货币ETF" sheetId="2" r:id="rId1"/>
     <sheet name="tradinglog" sheetId="3" r:id="rId2"/>
+    <sheet name="stklist" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2531" uniqueCount="375">
   <si>
     <t xml:space="preserve">   </t>
   </si>
@@ -805,12 +806,349 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>517081</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HGS501</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>EXCHTRUSTEESHIPQTY</t>
+  </si>
+  <si>
+    <t>PREVIOUSQTY</t>
+  </si>
+  <si>
+    <t>PREVIOUSCOST</t>
+  </si>
+  <si>
+    <t>STKVALUE</t>
+  </si>
+  <si>
+    <t>PREVIOUSINCOME</t>
+  </si>
+  <si>
+    <t>USABLEQTY</t>
+  </si>
+  <si>
+    <t>CURRENTQTY</t>
+  </si>
+  <si>
+    <t>UNSALEABLEQTY</t>
+  </si>
+  <si>
+    <t>SELLFROZENQTY</t>
+  </si>
+  <si>
+    <t>BUYFROZENQTY</t>
+  </si>
+  <si>
+    <t>EXCEPTFROZENQTY</t>
+  </si>
+  <si>
+    <t>REALTIMECOST</t>
+  </si>
+  <si>
+    <t>REALTIMEINCOME</t>
+  </si>
+  <si>
+    <t>CURRENTSTKVALUE</t>
+  </si>
+  <si>
+    <t>NEWPRICE</t>
+  </si>
+  <si>
+    <t>ETFKNOCKQTY</t>
+  </si>
+  <si>
+    <t>SELLUSEDQTY</t>
+  </si>
+  <si>
+    <t>ETFUSEDQTY</t>
+  </si>
+  <si>
+    <t>NEEDSETTLEQTY</t>
+  </si>
+  <si>
+    <t>IMPAWNQTY</t>
+  </si>
+  <si>
+    <t>WARRANTUSEDQTY</t>
+  </si>
+  <si>
+    <t>BONDPLEDGEQTY</t>
+  </si>
+  <si>
+    <t>BONDPLEDGEUSABLEQTY</t>
+  </si>
+  <si>
+    <t>HOLDSTATUS</t>
+  </si>
+  <si>
+    <t>CREDITSHAREUSEDQTY</t>
+  </si>
+  <si>
+    <t>CURRENTCREDITSHAREQTY</t>
+  </si>
+  <si>
+    <t>CREDITSHAREFROZENQTY</t>
+  </si>
+  <si>
+    <t>GUARANTYQTY</t>
+  </si>
+  <si>
+    <t>CURRENTQTYF</t>
+  </si>
+  <si>
+    <t>CUSTBRANCHID</t>
+  </si>
+  <si>
+    <t>GOINGBUYQTY</t>
+  </si>
+  <si>
+    <t>TOTALSELLQTY</t>
+  </si>
+  <si>
+    <t>SELLLIMITQTY</t>
+  </si>
+  <si>
+    <t>WAITSETTLEQTY</t>
+  </si>
+  <si>
+    <t>EXCHFROZENQTY</t>
+  </si>
+  <si>
+    <t>DIVIDENDAMT</t>
+  </si>
+  <si>
+    <t>DIVIDENDQTY</t>
+  </si>
+  <si>
+    <t>AGREEREPOQTY</t>
+  </si>
+  <si>
+    <t>QBONDPLEDGEQTY</t>
+  </si>
+  <si>
+    <t>QBONDPLEDGEUSABLEQTY</t>
+  </si>
+  <si>
+    <t>EXCHSELLFROZENQTY</t>
+  </si>
+  <si>
+    <t>ETFPURCHASEFROZENQTY</t>
+  </si>
+  <si>
+    <t>INTSUSABLEQTY</t>
+  </si>
+  <si>
+    <t>INTSBUYFROZENQTY</t>
+  </si>
+  <si>
+    <t>INTSSELLUSEDQTY</t>
+  </si>
+  <si>
+    <t>TDTOTALOPENAMT</t>
+  </si>
+  <si>
+    <t>TDTOTALOPENQTY</t>
+  </si>
+  <si>
+    <t>TDTOTALCLOSEAMT</t>
+  </si>
+  <si>
+    <t>TDTOTALCLOSEQTY</t>
+  </si>
+  <si>
+    <t>TDTOTALOPENFEE</t>
+  </si>
+  <si>
+    <t>TDTOTALCLOSEFEE</t>
+  </si>
+  <si>
+    <t>COVEREDFROZENQTY</t>
+  </si>
+  <si>
+    <t>COVEREDFROZENUSABLEQTY</t>
+  </si>
+  <si>
+    <t>COVEREDFROZENPOSITIONQTY</t>
+  </si>
+  <si>
+    <t>SETTLEPREVIOUSCOST</t>
+  </si>
+  <si>
+    <t>SETTLESTKVALUE</t>
+  </si>
+  <si>
+    <t>SETTLEPREVIOUSINCOME</t>
+  </si>
+  <si>
+    <t>CREDITINSHAREUSEDQTY</t>
+  </si>
+  <si>
+    <t>CREDITINSHAREQTY</t>
+  </si>
+  <si>
+    <t>CREDITOUTSHAREUSEDQTY</t>
+  </si>
+  <si>
+    <t>CREDITOUTSHAREQTY</t>
+  </si>
+  <si>
+    <t>NOUSEINITQTY</t>
+  </si>
+  <si>
+    <t>USEDUNFROZENQTY</t>
+  </si>
+  <si>
+    <t>FASTUPDATECNT</t>
+  </si>
+  <si>
+    <t>CREDITSPAREQTY</t>
+  </si>
+  <si>
+    <t>TDTOTALNOTBUYQTY</t>
+  </si>
+  <si>
+    <t>TDTOTALNOTSELLQTY</t>
+  </si>
+  <si>
+    <t>OCCURCREDITLOCKSHAREQTY</t>
+  </si>
+  <si>
+    <t>GAPFROZENQTY</t>
+  </si>
+  <si>
+    <t>ZRTTRANSQTY</t>
+  </si>
+  <si>
+    <t>CREDITSHAREGOINGQTY</t>
+  </si>
+  <si>
+    <t>CREDITUSABLEQTY</t>
+  </si>
+  <si>
+    <t>CREDITBUYFROZENQTY</t>
+  </si>
+  <si>
+    <t>1.12000000</t>
+  </si>
+  <si>
+    <t>2200000.0000</t>
+  </si>
+  <si>
+    <t>1.1000</t>
+  </si>
+  <si>
+    <t>1.000000</t>
+  </si>
+  <si>
+    <t>1.54000000</t>
+  </si>
+  <si>
+    <t>200006000.0000</t>
+  </si>
+  <si>
+    <t>100.0030</t>
+  </si>
+  <si>
+    <t>200036000.0000</t>
+  </si>
+  <si>
+    <t>100.0180</t>
+  </si>
+  <si>
+    <t>200012000.0000</t>
+  </si>
+  <si>
+    <t>100.0060</t>
+  </si>
+  <si>
+    <t>000011721201</t>
+  </si>
+  <si>
+    <t>A117212001</t>
+  </si>
+  <si>
+    <t>焦振鹏虚拟股东</t>
+  </si>
+  <si>
+    <t>1000000</t>
+  </si>
+  <si>
+    <t>1.53000000</t>
+  </si>
+  <si>
+    <t>1100000.0000</t>
+  </si>
+  <si>
+    <t>100003000.0000</t>
+  </si>
+  <si>
+    <t>100018000.0000</t>
+  </si>
+  <si>
+    <t>100006000.0000</t>
+  </si>
+  <si>
+    <t>16667</t>
+  </si>
+  <si>
+    <t>0.74998500</t>
+  </si>
+  <si>
+    <t>6558.4600</t>
+  </si>
+  <si>
+    <t>0.3935</t>
+  </si>
+  <si>
+    <t>30001200</t>
+  </si>
+  <si>
+    <t>20221128162013</t>
+  </si>
+  <si>
+    <t>20221128000000</t>
+  </si>
+  <si>
+    <t>14712129.390</t>
+  </si>
+  <si>
+    <t>000007054990</t>
+  </si>
+  <si>
+    <t>30001210</t>
+  </si>
+  <si>
+    <t>20221128162014</t>
+  </si>
+  <si>
+    <t>14763987.390</t>
+  </si>
+  <si>
+    <t>000007055000</t>
+  </si>
+  <si>
+    <t>30001211</t>
+  </si>
+  <si>
+    <t>14815845.390</t>
+  </si>
+  <si>
+    <t>000007055001</t>
+  </si>
+  <si>
+    <t>30001212</t>
+  </si>
+  <si>
+    <t>14867703.390</t>
+  </si>
+  <si>
+    <t>000007055002</t>
+  </si>
+  <si>
+    <t>30001213</t>
+  </si>
+  <si>
+    <t>14919561.390</t>
+  </si>
+  <si>
+    <t>000007055003</t>
   </si>
 </sst>
 </file>
@@ -1173,25 +1511,25 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="3" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1616,7 +1954,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>243</v>
       </c>
@@ -1951,7 +2289,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>246</v>
       </c>
@@ -2280,7 +2618,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>248</v>
       </c>
@@ -2609,7 +2947,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>250</v>
       </c>
@@ -2938,7 +3276,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>252</v>
       </c>
@@ -3273,14 +3611,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="12" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -3492,7 +3830,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="13" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -3632,7 +3970,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -3772,7 +4110,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
@@ -3912,7 +4250,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -4052,7 +4390,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
@@ -4192,278 +4530,278 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="243" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="244" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="245" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="246" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="247" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="248" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="249" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="250" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="251" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="252" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="253" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="254" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="255" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="256" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="257" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="258" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="259" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="260" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="261" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="262" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="263" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="264" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="265" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="266" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="267" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="268" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="269" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="270" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="271" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="272" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="273" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="274" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="275" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="276" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="277" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="278" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="279" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="280" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="281" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="282" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="283" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="284" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="285" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="286" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="287" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="288" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="289" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="243" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="244" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="245" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="246" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="247" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="248" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="249" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="250" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="251" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="252" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="253" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="254" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="255" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="256" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="257" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="258" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="259" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="260" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="261" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="262" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="263" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="264" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="265" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="266" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="267" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="268" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="269" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="270" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="271" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="272" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="273" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="274" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="275" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="276" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="277" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="278" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="279" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="280" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="281" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="282" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="283" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="284" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="285" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="286" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="287" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="288" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="289" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4476,12 +4814,12 @@
   <dimension ref="A1:EI6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4900,9 +5238,9 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>240</v>
+        <v>357</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>182</v>
@@ -4911,10 +5249,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>244</v>
+        <v>358</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>244</v>
+        <v>358</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>21</v>
@@ -4965,7 +5303,7 @@
         <v>25</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>34</v>
+        <v>359</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>185</v>
@@ -4974,7 +5312,7 @@
         <v>185</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>186</v>
+        <v>360</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>58</v>
@@ -5130,13 +5468,13 @@
         <v>21</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>245</v>
+        <v>361</v>
       </c>
       <c r="CJ2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="CK2" s="1" t="s">
-        <v>34</v>
+        <v>359</v>
       </c>
       <c r="CL2" s="1" t="s">
         <v>23</v>
@@ -5229,21 +5567,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>196</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>244</v>
+        <v>363</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>244</v>
+        <v>363</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>21</v>
@@ -5260,10 +5598,10 @@
       <c r="L3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="1" t="s">
         <v>38</v>
       </c>
       <c r="O3" s="1" t="s">
@@ -5294,7 +5632,7 @@
         <v>25</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>34</v>
+        <v>359</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>185</v>
@@ -5303,7 +5641,7 @@
         <v>185</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>194</v>
+        <v>364</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>58</v>
@@ -5453,13 +5791,13 @@
         <v>21</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>247</v>
+        <v>365</v>
       </c>
       <c r="CJ3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="CK3" s="1" t="s">
-        <v>34</v>
+        <v>359</v>
       </c>
       <c r="CL3" s="1" t="s">
         <v>23</v>
@@ -5552,21 +5890,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>196</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>244</v>
+        <v>363</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>244</v>
+        <v>363</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>21</v>
@@ -5583,10 +5921,10 @@
       <c r="L4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="1" t="s">
         <v>49</v>
       </c>
       <c r="O4" s="1" t="s">
@@ -5617,7 +5955,7 @@
         <v>25</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>34</v>
+        <v>359</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>185</v>
@@ -5626,7 +5964,7 @@
         <v>185</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>197</v>
+        <v>367</v>
       </c>
       <c r="AB4" s="1" t="s">
         <v>58</v>
@@ -5776,13 +6114,13 @@
         <v>21</v>
       </c>
       <c r="CH4" s="1" t="s">
-        <v>249</v>
+        <v>368</v>
       </c>
       <c r="CJ4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="CK4" s="1" t="s">
-        <v>34</v>
+        <v>359</v>
       </c>
       <c r="CL4" s="1" t="s">
         <v>23</v>
@@ -5875,21 +6213,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>196</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>244</v>
+        <v>363</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>244</v>
+        <v>363</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>21</v>
@@ -5906,10 +6244,10 @@
       <c r="L5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="1" t="s">
         <v>39</v>
       </c>
       <c r="O5" s="1" t="s">
@@ -5940,7 +6278,7 @@
         <v>25</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>34</v>
+        <v>359</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>185</v>
@@ -5949,7 +6287,7 @@
         <v>185</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>198</v>
+        <v>370</v>
       </c>
       <c r="AB5" s="1" t="s">
         <v>58</v>
@@ -6099,13 +6437,13 @@
         <v>21</v>
       </c>
       <c r="CH5" s="1" t="s">
-        <v>251</v>
+        <v>371</v>
       </c>
       <c r="CJ5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="CK5" s="1" t="s">
-        <v>34</v>
+        <v>359</v>
       </c>
       <c r="CL5" s="1" t="s">
         <v>23</v>
@@ -6198,9 +6536,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>193</v>
+        <v>372</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>182</v>
@@ -6209,10 +6547,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>244</v>
+        <v>363</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>244</v>
+        <v>363</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>21</v>
@@ -6233,10 +6571,10 @@
         <v>56</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>260</v>
+        <v>40</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>261</v>
+        <v>60</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>36</v>
@@ -6263,7 +6601,7 @@
         <v>25</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>34</v>
+        <v>359</v>
       </c>
       <c r="Y6" s="1" t="s">
         <v>185</v>
@@ -6272,10 +6610,10 @@
         <v>185</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>199</v>
+        <v>373</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="AC6" s="1" t="s">
         <v>22</v>
@@ -6428,13 +6766,13 @@
         <v>21</v>
       </c>
       <c r="CH6" s="1" t="s">
-        <v>253</v>
+        <v>374</v>
       </c>
       <c r="CJ6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="CK6" s="1" t="s">
-        <v>34</v>
+        <v>359</v>
       </c>
       <c r="CL6" s="1" t="s">
         <v>23</v>
@@ -6532,4 +6870,2631 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CH14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:P10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BM2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BN2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="BS2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BT2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BU2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BV2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BW2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BX2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BY2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BZ2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CA2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CB2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CC2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CD2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CE2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CF2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CG2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CH2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BA3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BE3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BF3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BH3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BK3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BL3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BM3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BN3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BO3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="BP3" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="BQ3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BR3" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="BS3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BT3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BU3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BV3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BW3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BX3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BY3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BZ3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CA3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CB3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CC3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CD3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CE3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CF3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CG3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CH3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AT4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AU4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AV4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AX4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AY4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AZ4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BA4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BB4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BC4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BD4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BE4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BF4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BG4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BH4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BI4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BJ4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BK4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BL4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BM4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BN4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BO4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="BP4" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="BQ4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BR4" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="BS4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BT4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BU4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BV4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BW4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BX4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BY4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BZ4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CA4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CB4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CC4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CD4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CE4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CF4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CG4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CH4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AT5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AU5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AV5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AX5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AY5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AZ5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BA5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BB5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BC5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BD5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BE5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BF5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BG5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BH5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BI5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BJ5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BK5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BL5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BM5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BN5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BO5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="BP5" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="BQ5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BR5" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="BS5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BT5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BU5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BV5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BW5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BX5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BY5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BZ5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CA5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CB5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CC5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CD5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CE5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CF5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CG5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CH5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AT6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AU6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AV6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AX6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AY6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AZ6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BA6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BB6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BC6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BD6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BE6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BF6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BG6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BH6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BI6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BJ6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BK6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BL6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BM6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BN6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BO6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="BP6" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="BQ6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BR6" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="BS6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BT6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BU6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BV6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BW6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BX6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BY6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BZ6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CA6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CB6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CC6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CD6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CE6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CF6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CG6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CH6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AT7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AU7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AV7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AX7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AY7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AZ7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BA7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BB7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BC7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BD7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BE7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BF7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BG7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BH7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BI7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BJ7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BK7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BL7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BM7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BN7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BO7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="BP7" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="BQ7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BR7" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="BS7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BT7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BU7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BV7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BW7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BX7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BY7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BZ7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CA7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CB7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CC7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CD7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CE7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CF7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CG7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CH7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AT8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AU8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AV8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AX8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AY8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AZ8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BA8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BB8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BC8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BD8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BE8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BF8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BG8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BH8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BI8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BJ8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BK8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BL8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BM8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BN8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BO8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="BP8" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="BQ8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BR8" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="BS8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BT8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BU8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BV8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BW8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BX8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BY8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BZ8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CA8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CB8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CC8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CD8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CE8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CF8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CG8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CH8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AT9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AU9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AV9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AX9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AY9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AZ9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BA9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BB9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BC9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BD9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BE9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BF9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BG9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BH9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BI9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BJ9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BK9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BL9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BM9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BN9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BO9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="BP9" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="BQ9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BR9" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="BS9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BT9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BU9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BV9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BW9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BX9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BY9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BZ9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CA9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CB9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CC9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CD9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CE9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CF9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CG9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CH9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AT10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AU10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AV10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AX10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AY10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AZ10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BA10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BB10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BC10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BD10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BE10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BF10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BG10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BH10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BI10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BJ10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BK10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BL10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BM10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BN10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BO10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="BP10" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="BQ10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BR10" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="BS10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BT10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BU10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BV10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BW10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BX10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BY10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BZ10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CA10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CB10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CC10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CD10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CE10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CF10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CG10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CH10" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/用例数据/沪A/ETF业务/基金收益/使用cil/测试结果.xlsx
+++ b/用例数据/沪A/ETF业务/基金收益/使用cil/测试结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="10296" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="10290" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="货币ETF" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2531" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2743" uniqueCount="386">
   <si>
     <t xml:space="preserve">   </t>
   </si>
@@ -1097,58 +1097,91 @@
     <t>0.3935</t>
   </si>
   <si>
-    <t>30001200</t>
-  </si>
-  <si>
-    <t>20221128162013</t>
-  </si>
-  <si>
-    <t>20221128000000</t>
-  </si>
-  <si>
-    <t>14712129.390</t>
-  </si>
-  <si>
-    <t>000007054990</t>
-  </si>
-  <si>
-    <t>30001210</t>
-  </si>
-  <si>
-    <t>20221128162014</t>
-  </si>
-  <si>
-    <t>14763987.390</t>
-  </si>
-  <si>
-    <t>000007055000</t>
-  </si>
-  <si>
-    <t>30001211</t>
-  </si>
-  <si>
-    <t>14815845.390</t>
-  </si>
-  <si>
-    <t>000007055001</t>
-  </si>
-  <si>
-    <t>30001212</t>
-  </si>
-  <si>
-    <t>14867703.390</t>
-  </si>
-  <si>
-    <t>000007055002</t>
-  </si>
-  <si>
-    <t>30001213</t>
-  </si>
-  <si>
-    <t>14919561.390</t>
-  </si>
-  <si>
-    <t>000007055003</t>
+    <t>34572.000</t>
+  </si>
+  <si>
+    <t>17286.000</t>
+  </si>
+  <si>
+    <t>00001</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>30001995</t>
+  </si>
+  <si>
+    <t>20230208235959</t>
+  </si>
+  <si>
+    <t>20230209083701</t>
+  </si>
+  <si>
+    <t>20230208000000</t>
+  </si>
+  <si>
+    <t>672151829.990</t>
+  </si>
+  <si>
+    <t>000007123663</t>
+  </si>
+  <si>
+    <t>30002000</t>
+  </si>
+  <si>
+    <t>672201401.380</t>
+  </si>
+  <si>
+    <t>000007123667</t>
+  </si>
+  <si>
+    <t>30002003</t>
+  </si>
+  <si>
+    <t>672250972.760</t>
+  </si>
+  <si>
+    <t>000007123669</t>
+  </si>
+  <si>
+    <t>30002409</t>
+  </si>
+  <si>
+    <t>20230209083702</t>
+  </si>
+  <si>
+    <t>673828659.050</t>
+  </si>
+  <si>
+    <t>000007124079</t>
+  </si>
+  <si>
+    <t>30002410</t>
+  </si>
+  <si>
+    <t>-622521402.710</t>
+  </si>
+  <si>
+    <t>000007124080</t>
+  </si>
+  <si>
+    <t>30002411</t>
+  </si>
+  <si>
+    <t>673863231.050</t>
+  </si>
+  <si>
+    <t>000007124081</t>
+  </si>
+  <si>
+    <t>30002412</t>
+  </si>
+  <si>
+    <t>-622504116.710</t>
+  </si>
+  <si>
+    <t>000007124082</t>
   </si>
 </sst>
 </file>
@@ -1508,28 +1541,28 @@
   <dimension ref="A1:EK289"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="3" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1954,7 +1987,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>243</v>
       </c>
@@ -2289,7 +2322,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>246</v>
       </c>
@@ -2618,7 +2651,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>248</v>
       </c>
@@ -2947,7 +2980,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>250</v>
       </c>
@@ -3276,7 +3309,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>252</v>
       </c>
@@ -3611,14 +3644,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="12" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -3830,7 +3863,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="13" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -3970,7 +4003,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -4110,7 +4143,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
@@ -4250,7 +4283,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -4390,7 +4423,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
@@ -4530,278 +4563,278 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="243" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="244" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="245" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="246" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="247" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="248" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="249" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="250" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="251" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="252" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="253" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="254" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="255" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="256" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="257" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="258" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="259" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="260" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="261" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="262" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="263" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="264" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="265" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="266" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="267" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="268" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="269" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="270" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="271" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="272" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="273" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="274" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="275" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="276" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="277" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="278" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="279" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="280" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="281" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="282" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="283" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="284" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="285" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="286" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="287" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="288" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="289" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="243" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="244" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="245" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="246" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="247" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="248" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="249" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="250" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="251" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="252" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="253" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="254" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="255" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="256" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="257" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="258" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="259" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="260" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="261" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="262" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="263" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="264" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="265" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="266" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="267" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="268" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="269" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="270" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="271" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="272" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="273" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="274" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="275" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="276" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="277" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="278" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="279" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="280" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="281" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="282" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="283" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="284" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="285" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="286" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="287" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="288" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="289" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4811,15 +4844,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EI6"/>
+  <dimension ref="A1:EI8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="9" max="9" width="13.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -5238,9 +5274,9 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>182</v>
@@ -5249,10 +5285,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>21</v>
@@ -5303,7 +5339,7 @@
         <v>25</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>185</v>
@@ -5312,7 +5348,7 @@
         <v>185</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>58</v>
@@ -5468,13 +5504,13 @@
         <v>21</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="CJ2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="CK2" s="1" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="CL2" s="1" t="s">
         <v>23</v>
@@ -5567,9 +5603,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>362</v>
+    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>367</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>196</v>
@@ -5578,7 +5614,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>363</v>
@@ -5592,20 +5628,20 @@
       <c r="J3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="5" t="s">
         <v>57</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="1" t="s">
         <v>56</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>36</v>
@@ -5632,7 +5668,7 @@
         <v>25</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>185</v>
@@ -5641,7 +5677,7 @@
         <v>185</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>58</v>
@@ -5791,13 +5827,13 @@
         <v>21</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="CJ3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="CK3" s="1" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="CL3" s="1" t="s">
         <v>23</v>
@@ -5890,18 +5926,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>366</v>
+    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>370</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>363</v>
@@ -5915,20 +5951,20 @@
       <c r="J4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="3" t="s">
         <v>57</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="1" t="s">
         <v>56</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>36</v>
@@ -5955,7 +5991,7 @@
         <v>25</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>185</v>
@@ -5964,10 +6000,10 @@
         <v>185</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>22</v>
@@ -6053,6 +6089,9 @@
       <c r="BG4" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="BH4" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="BI4" s="1" t="s">
         <v>25</v>
       </c>
@@ -6104,6 +6143,9 @@
       <c r="CB4" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="CC4" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="CD4" s="1" t="s">
         <v>22</v>
       </c>
@@ -6114,13 +6156,13 @@
         <v>21</v>
       </c>
       <c r="CH4" s="1" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="CJ4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="CK4" s="1" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="CL4" s="1" t="s">
         <v>23</v>
@@ -6213,9 +6255,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>369</v>
+    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>373</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>196</v>
@@ -6224,10 +6266,10 @@
         <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>21</v>
@@ -6238,20 +6280,20 @@
       <c r="J5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="3" t="s">
         <v>57</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="1" t="s">
         <v>56</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>36</v>
@@ -6278,16 +6320,16 @@
         <v>25</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>185</v>
+        <v>357</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>185</v>
+        <v>357</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="AB5" s="1" t="s">
         <v>58</v>
@@ -6380,7 +6422,7 @@
         <v>25</v>
       </c>
       <c r="BJ5" s="1" t="s">
-        <v>185</v>
+        <v>357</v>
       </c>
       <c r="BL5" s="1" t="s">
         <v>22</v>
@@ -6437,13 +6479,13 @@
         <v>21</v>
       </c>
       <c r="CH5" s="1" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="CJ5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="CK5" s="1" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="CL5" s="1" t="s">
         <v>23</v>
@@ -6536,21 +6578,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>21</v>
@@ -6559,22 +6601,22 @@
         <v>183</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>55</v>
+        <v>344</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>57</v>
+        <v>346</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>56</v>
+        <v>345</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>36</v>
@@ -6601,19 +6643,19 @@
         <v>25</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>185</v>
+        <v>358</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>185</v>
+        <v>358</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>21</v>
+        <v>347</v>
       </c>
       <c r="AC6" s="1" t="s">
         <v>22</v>
@@ -6661,10 +6703,10 @@
         <v>18</v>
       </c>
       <c r="AR6" s="1" t="s">
-        <v>55</v>
+        <v>344</v>
       </c>
       <c r="AS6" s="1" t="s">
-        <v>57</v>
+        <v>346</v>
       </c>
       <c r="AT6" s="1" t="s">
         <v>188</v>
@@ -6673,7 +6715,7 @@
         <v>17</v>
       </c>
       <c r="AV6" s="1" t="s">
-        <v>189</v>
+        <v>359</v>
       </c>
       <c r="AX6" s="1" t="s">
         <v>46</v>
@@ -6699,14 +6741,11 @@
       <c r="BG6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="BH6" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="BI6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="BJ6" s="1" t="s">
-        <v>185</v>
+        <v>358</v>
       </c>
       <c r="BL6" s="1" t="s">
         <v>22</v>
@@ -6715,7 +6754,7 @@
         <v>21</v>
       </c>
       <c r="BN6" s="1" t="s">
-        <v>26</v>
+        <v>360</v>
       </c>
       <c r="BP6" s="1" t="s">
         <v>27</v>
@@ -6753,9 +6792,6 @@
       <c r="CB6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="CC6" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="CD6" s="1" t="s">
         <v>22</v>
       </c>
@@ -6766,13 +6802,13 @@
         <v>21</v>
       </c>
       <c r="CH6" s="1" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="CJ6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="CK6" s="1" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="CL6" s="1" t="s">
         <v>23</v>
@@ -6863,6 +6899,716 @@
       </c>
       <c r="EI6" s="1" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:139" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT7" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AU7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AV7" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AW7" s="1"/>
+      <c r="AX7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BB7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BC7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BD7" s="1"/>
+      <c r="BE7" s="1"/>
+      <c r="BF7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="BG7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BH7" s="1"/>
+      <c r="BI7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="BJ7" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="BK7" s="1"/>
+      <c r="BL7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BM7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BN7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO7" s="1"/>
+      <c r="BP7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="BQ7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BR7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BS7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BT7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="BU7" s="1"/>
+      <c r="BV7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="BW7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BX7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BY7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BZ7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="CA7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="CB7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="CC7" s="1"/>
+      <c r="CD7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="CE7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="CF7" s="1"/>
+      <c r="CG7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CH7" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="CI7" s="1"/>
+      <c r="CJ7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="CK7" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CL7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="CM7" s="1"/>
+      <c r="CN7" s="1"/>
+      <c r="CO7" s="1"/>
+      <c r="CP7" s="1"/>
+      <c r="CQ7" s="1"/>
+      <c r="CR7" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="CS7" s="1"/>
+      <c r="CT7" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="CU7" s="1"/>
+      <c r="CV7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CW7" s="1"/>
+      <c r="CX7" s="1"/>
+      <c r="CY7" s="1"/>
+      <c r="CZ7" s="1"/>
+      <c r="DA7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="DB7" s="1"/>
+      <c r="DC7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="DD7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="DE7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="DF7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DG7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="DH7" s="1"/>
+      <c r="DI7" s="1"/>
+      <c r="DJ7" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="DK7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="DL7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="DM7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="DN7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="DO7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="DP7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="DQ7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="DR7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="DS7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="DT7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="DU7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="DV7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="DW7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="DX7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="DY7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="DZ7" s="1"/>
+      <c r="EA7" s="1"/>
+      <c r="EB7" s="1"/>
+      <c r="EC7" s="1"/>
+      <c r="ED7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="EE7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="EF7" s="1"/>
+      <c r="EG7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="EH7" s="1"/>
+      <c r="EI7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:139" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP8" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AQ8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR8" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="AS8" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="AT8" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AU8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AV8" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="AW8" s="1"/>
+      <c r="AX8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BB8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BC8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BD8" s="1"/>
+      <c r="BE8" s="1"/>
+      <c r="BF8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="BG8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BH8" s="1"/>
+      <c r="BI8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="BJ8" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="BK8" s="1"/>
+      <c r="BL8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BM8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BN8" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="BO8" s="1"/>
+      <c r="BP8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="BQ8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BR8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BS8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BT8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="BU8" s="1"/>
+      <c r="BV8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="BW8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BX8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BY8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BZ8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="CA8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="CB8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="CC8" s="1"/>
+      <c r="CD8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="CE8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="CF8" s="1"/>
+      <c r="CG8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CH8" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="CI8" s="1"/>
+      <c r="CJ8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="CK8" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CL8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="CM8" s="1"/>
+      <c r="CN8" s="1"/>
+      <c r="CO8" s="1"/>
+      <c r="CP8" s="1"/>
+      <c r="CQ8" s="1"/>
+      <c r="CR8" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="CS8" s="1"/>
+      <c r="CT8" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="CU8" s="1"/>
+      <c r="CV8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CW8" s="1"/>
+      <c r="CX8" s="1"/>
+      <c r="CY8" s="1"/>
+      <c r="CZ8" s="1"/>
+      <c r="DA8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="DB8" s="1"/>
+      <c r="DC8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="DD8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="DE8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="DF8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DG8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="DH8" s="1"/>
+      <c r="DI8" s="1"/>
+      <c r="DJ8" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="DK8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="DL8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="DM8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="DN8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="DO8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="DP8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="DQ8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="DR8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="DS8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="DT8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="DU8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="DV8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="DW8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="DX8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="DY8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="DZ8" s="1"/>
+      <c r="EA8" s="1"/>
+      <c r="EB8" s="1"/>
+      <c r="EC8" s="1"/>
+      <c r="ED8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="EE8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="EF8" s="1"/>
+      <c r="EG8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="EH8" s="1"/>
+      <c r="EI8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6876,19 +7622,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CH14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:P10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -7148,7 +7895,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -7408,7 +8155,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -7446,7 +8193,7 @@
         <v>338</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>185</v>
+        <v>357</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>58</v>
@@ -7668,7 +8415,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -7928,7 +8675,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -7966,7 +8713,7 @@
         <v>342</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>185</v>
+        <v>357</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>58</v>
@@ -8188,7 +8935,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -8448,7 +9195,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -8486,7 +9233,7 @@
         <v>350</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>22</v>
+        <v>358</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>347</v>
@@ -8708,7 +9455,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -8968,7 +9715,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -9006,7 +9753,7 @@
         <v>352</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>22</v>
+        <v>358</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>347</v>
@@ -9228,7 +9975,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -9488,10 +10235,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
